--- a/data/income_statement/2digits/total/02_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/02_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>02-Forestry and logging</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>02-Forestry and logging</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>623125.6979000001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>609456.17489</v>
+        <v>609456.1748900001</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>833033.3973099999</v>
@@ -962,70 +868,80 @@
         <v>846595.67339</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>788571.2051199999</v>
+        <v>808273.8280900001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>739217.20655</v>
+        <v>750589.9279700002</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>795281.64544</v>
+        <v>796949.92236</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>863787.60707</v>
+        <v>987162.42646</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>998407.68897</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1193052.55272</v>
+        <v>1197234.57249</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1417577.21887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1453170.00973</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1672305.143</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>453676.2955900001</v>
+        <v>453676.29559</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>555425.39365</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>771837.84744</v>
+        <v>771837.8474400002</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>769413.7228399999</v>
+        <v>769413.7228400001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>705721.7230899999</v>
+        <v>725295.6396500001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>644770.3049300001</v>
+        <v>656121.32767</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>718374.61996</v>
+        <v>720042.89688</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>792102.98091</v>
+        <v>873000.6437100001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>882527.44576</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1009166.44109</v>
+        <v>1013329.44418</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1198268.73148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1233392.56586</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1445570.32</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>53426.77823</v>
@@ -1034,10 +950,10 @@
         <v>43904.9114</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>49140.79146</v>
+        <v>49140.79146000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>60691.37700999999</v>
+        <v>60691.37701</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>61018.84214</v>
@@ -1049,22 +965,27 @@
         <v>54802.95423999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>48557.2458</v>
+        <v>90320.09998</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>77024.99145</v>
+        <v>77024.99144999999</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>128497.34721</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>155929.76872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>155944.76872</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>181270.53</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>116022.62408</v>
@@ -1079,31 +1000,36 @@
         <v>16490.57354</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>21830.63989</v>
+        <v>21959.3463</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>18496.17629</v>
+        <v>18517.87497</v>
       </c>
       <c r="I8" s="48" t="n">
         <v>22104.07124</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>23127.38036</v>
+        <v>23841.68277</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>38855.25176000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>55388.76442</v>
+        <v>55407.78109999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>63378.71866999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>63832.67515</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>45464.293</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>10765.08323</v>
@@ -1118,7 +1044,7 @@
         <v>17656.24731</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>24345.59954</v>
+        <v>24630.44226</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>18426.61697</v>
@@ -1127,37 +1053,42 @@
         <v>32144.76501</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>9312.760450000002</v>
+        <v>19438.38379</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>34776.08923999999</v>
+        <v>34776.08924</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>24324.88903</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>24818.46265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>24819.64565</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>33235.856</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7679.1647</v>
+        <v>7679.164700000001</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>5362.952490000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4581.13457</v>
+        <v>4581.134569999999</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>5108.92192</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8324.205260000001</v>
+        <v>8552.692900000002</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>7874.98265</v>
@@ -1166,7 +1097,7 @@
         <v>20206.16574</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4183.06545</v>
+        <v>5872.357379999999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>18796.79587</v>
@@ -1175,19 +1106,24 @@
         <v>9802.72668</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5983.81935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5985.00235</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>11848.378</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2905.843409999999</v>
+        <v>2905.84341</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4469.74388</v>
+        <v>4469.743880000001</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>8881.608839999999</v>
@@ -1196,7 +1132,7 @@
         <v>12429.44136</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>15962.89195</v>
+        <v>16019.24703</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>10410.76905</v>
@@ -1205,7 +1141,7 @@
         <v>11875.35965</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4250.947429999999</v>
+        <v>12687.27884</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>15850.30064</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>18673.34941</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>21291.397</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>180.07512</v>
@@ -1229,7 +1170,7 @@
         <v>221.72493</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>308.45963</v>
+        <v>308.4596299999999</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>117.88403</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>161.29389</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>96.081</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>612360.61467</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>599401.75359</v>
+        <v>599401.7535899999</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>819262.19427</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>828939.42608</v>
+        <v>828939.4260799999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>764225.60558</v>
+        <v>783643.38583</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>720790.5895800001</v>
+        <v>732163.311</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>763136.8804299999</v>
+        <v>764805.15735</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>854474.84662</v>
+        <v>967724.0426700001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>963631.59973</v>
+        <v>963631.5997299998</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1168727.66369</v>
+        <v>1172909.68346</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1392758.75622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1428350.36408</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1639069.287</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>377969.61188</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>447016.0945</v>
+        <v>447016.0944999999</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>644364.43504</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>621847.3601999999</v>
+        <v>621847.3602</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>528453.70235</v>
+        <v>546648.98323</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>520512.2988399999</v>
+        <v>528794.2485999999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>559503.5864299999</v>
+        <v>561306.89552</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>694830.1895100001</v>
+        <v>752506.51587</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>738702.39967</v>
+        <v>738702.3996699998</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>880911.86077</v>
+        <v>884761.706</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1034934.98415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1066940.22021</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1198276.14</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>180265.64002</v>
@@ -1352,31 +1308,36 @@
         <v>279145.63109</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>186312.29424</v>
+        <v>201492.54125</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>183065.94693</v>
+        <v>190960.98767</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>192628.9764</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>85543.82226</v>
+        <v>142180.50767</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>184321.25418</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>228496.70696</v>
+        <v>228649.88838</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>292735.38656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>311728.33495</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>349739.525</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>147196.87929</v>
@@ -1391,31 +1352,36 @@
         <v>215076.43783</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>213794.66953</v>
+        <v>215880.64146</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>202118.04427</v>
+        <v>202288.98237</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>235263.69851</v>
+        <v>235720.69513</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>438390.69021</v>
+        <v>439058.98162</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>304415.1811899999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>376790.10953</v>
+        <v>378383.1678</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>460926.11259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>463102.03396</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>508163.813</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>49126.57411</v>
@@ -1430,31 +1396,36 @@
         <v>126270.82624</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>123220.07302</v>
+        <v>124149.13496</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>134441.5901</v>
+        <v>134657.56102</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>130417.42426</v>
+        <v>131763.73673</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>166629.00339</v>
+        <v>166769.61334</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>246071.4244</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>273156.19435</v>
+        <v>275237.78489</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>277926.24993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>288733.79504</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>338116.146</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1380.51846</v>
@@ -1478,22 +1449,27 @@
         <v>1193.48726</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4266.673650000001</v>
+        <v>4497.41324</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>3894.5399</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2468.84993</v>
+        <v>2490.86493</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3347.23507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3376.05626</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2256.656</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>234391.00279</v>
@@ -1508,37 +1484,42 @@
         <v>207092.06588</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>235771.90323</v>
+        <v>236994.4026</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>200278.29074</v>
+        <v>203369.0624</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>203633.294</v>
+        <v>203498.26183</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>159644.65711</v>
+        <v>215217.5268</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>224929.20006</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>287815.8029199999</v>
+        <v>288147.97746</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>357823.7720700001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>361410.14387</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>440793.147</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>83983.09428</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>99537.38355</v>
+        <v>99537.38354999998</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>111617.57218</v>
@@ -1547,31 +1528,36 @@
         <v>131779.82493</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>151303.99092</v>
+        <v>152869.14606</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>121402.18753</v>
+        <v>124120.91685</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>146274.38981</v>
+        <v>146320.51918</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>132562.66104</v>
+        <v>164011.35185</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>179391.17559</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>220153.28815</v>
+        <v>220653.50727</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>250357.6063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>253646.83646</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>313320.858</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3073.14961</v>
@@ -1595,7 +1581,7 @@
         <v>5118.349470000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2803.31304</v>
+        <v>5166.5521</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>6098.55104</v>
@@ -1604,13 +1590,18 @@
         <v>6816.09852</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>8122.0352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8126.30781</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>10230.103</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>22810.98065</v>
@@ -1625,34 +1616,39 @@
         <v>33672.95677</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>43311.06646000001</v>
+        <v>44078.25499000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>28164.83791000001</v>
+        <v>28171.64631</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>35898.08860999999</v>
+        <v>35904.52096</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>32034.15002</v>
+        <v>42179.69977000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>38116.79998</v>
+        <v>38116.79997999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>50033.92288999999</v>
+        <v>50034.49789</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>69619.79035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>70224.27802000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>89097.05</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>58098.96402000001</v>
+        <v>58098.96402</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>73597.63606999999</v>
@@ -1661,34 +1657,39 @@
         <v>80686.27879</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>95542.03331999999</v>
+        <v>95542.03332</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>104011.0221</v>
+        <v>104808.98871</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>88338.38104000001</v>
+        <v>91050.30196</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>105257.95173</v>
+        <v>105297.64875</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>97725.19798</v>
+        <v>116665.09998</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>135175.82457</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>163303.26674</v>
+        <v>163802.91086</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>172615.78075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>175296.25063</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>213993.705</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>150407.90851</v>
@@ -1703,31 +1704,36 @@
         <v>75312.24095000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>84467.91231</v>
+        <v>84125.25653999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>78876.10320999997</v>
+        <v>79248.14555000002</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>57358.90418999999</v>
+        <v>57177.74265000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>27081.99607</v>
+        <v>51206.17495</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>45538.02447</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>67662.51476999999</v>
+        <v>67494.47018999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>107466.16577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>107763.30741</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>127472.289</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>19287.09786</v>
@@ -1742,7 +1748,7 @@
         <v>18088.17511</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>15138.69374</v>
+        <v>15652.93943</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>16986.46342</v>
@@ -1751,22 +1757,27 @@
         <v>18112.95967</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11227.32077</v>
+        <v>17641.60624</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>33452.2824</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>41696.35253</v>
+        <v>41696.35254000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>60429.423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>60561.703</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>70446.655</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>3827.1296</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5693.1</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1838,13 +1854,18 @@
         <v>382.1281</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>128.63715</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>186.859</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3503.59846</v>
@@ -1853,13 +1874,13 @@
         <v>3078.0848</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4899.78092</v>
+        <v>4899.780920000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4437.55011</v>
+        <v>4437.550109999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2212.95137</v>
+        <v>2388.148410000001</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>1470.7662</v>
@@ -1868,22 +1889,27 @@
         <v>1599.27097</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1483.36105</v>
+        <v>2182.432020000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>2696.11871</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5240.458180000001</v>
+        <v>5240.45818</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>7980.94832</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>8271.264999999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>229.58648</v>
@@ -1913,16 +1939,21 @@
         <v>473.93554</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>286.3959300000001</v>
+        <v>286.39593</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>506.8771</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>209.081</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>134.93088</v>
@@ -1937,7 +1968,7 @@
         <v>656.42525</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>545.74659</v>
+        <v>607.90254</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>315.92033</v>
@@ -1946,22 +1977,27 @@
         <v>141.96589</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>123.15736</v>
+        <v>190.04563</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>496.9252</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>345.11701</v>
+        <v>345.1170099999999</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>702.99612</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>800.884</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>261.06794</v>
@@ -1979,13 +2015,13 @@
         <v>182.55899</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>349.8472400000001</v>
+        <v>349.84724</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>80.51242999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>91.59256000000001</v>
+        <v>467.459</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>211.43241</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>181.75117</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>55.21</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>11661.7713</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6242.600660000001</v>
+        <v>6242.60066</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>124068.41669</v>
@@ -2015,7 +2056,7 @@
         <v>7726.80154</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8667.720150000001</v>
+        <v>8687.167830000002</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>11379.53193</v>
@@ -2024,7 +2065,7 @@
         <v>13734.49767</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5253.137669999999</v>
+        <v>10518.88975</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>20888.87267</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>31281.62284</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>39845.825</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>20.64091</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>3942.78782</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>3837.54</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.00049</v>
@@ -2113,26 +2164,31 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>57.865</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3475.5014</v>
+        <v>3475.501400000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4350.87011</v>
+        <v>4350.870110000002</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3513.17925</v>
+        <v>3513.179249999999</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>3954.55112</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3184.20588</v>
+        <v>3441.650900000001</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>3089.58072</v>
@@ -2141,28 +2197,33 @@
         <v>1974.96216</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3850.29731</v>
+        <v>3857.00502</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8211.49806</v>
+        <v>8211.498059999998</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>10525.47952</v>
+        <v>10525.47953</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>12005.31003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>12008.95288</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>11489.026</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>11582.58665</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>9160.296549999999</v>
+        <v>9160.296550000001</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>124010.40326</v>
@@ -2171,7 +2232,7 @@
         <v>11453.90776</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>14443.49614</v>
+        <v>14830.35527</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>9082.31522</v>
@@ -2180,7 +2241,7 @@
         <v>17658.05278</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>13850.62798</v>
+        <v>19317.83443</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>28930.7664</v>
@@ -2189,13 +2250,18 @@
         <v>53010.64816</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>40042.31184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>40042.31185</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>42315.629</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>58.02014999999999</v>
@@ -2216,10 +2282,10 @@
         <v>67.75071000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>56.15211</v>
+        <v>56.15211000000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>62.4987</v>
+        <v>62.49870000000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>56.13699</v>
@@ -2228,16 +2294,21 @@
         <v>123.99715</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>603.6303800000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>603.6303799999998</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>88.43300000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>819.19048</v>
+        <v>819.1904800000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>2502.81706</v>
@@ -2249,7 +2320,7 @@
         <v>2625.71744</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3797.99038</v>
+        <v>4066.31787</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>1170.19136</v>
@@ -2258,7 +2329,7 @@
         <v>1640.64889</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1107.34577</v>
+        <v>1468.66577</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1674.68815</v>
@@ -2267,13 +2338,18 @@
         <v>5567.87788</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>9371.202830000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9371.20283</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4068.946</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.06027</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>16.83108</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>9295.74511</v>
@@ -2324,34 +2405,39 @@
         <v>120410.55737</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7958.72515</v>
+        <v>7958.725149999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10204.22468</v>
+        <v>10243.07434</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6979.39648</v>
+        <v>6979.396479999999</v>
       </c>
       <c r="I40" s="48" t="n">
         <v>15603.3054</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>12353.8033</v>
+        <v>17106.47414</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>25430.9128</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>45438.75763</v>
+        <v>45438.75763000001</v>
       </c>
       <c r="M40" s="48" t="n">
         <v>24481.91008</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>33794.222</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3.11774</v>
@@ -2366,7 +2452,7 @@
         <v>28.50625</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>39.61852</v>
+        <v>58.05486</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>18.0989</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4271.32668</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>4099.629</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>21.07771</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1385.37519</v>
@@ -2438,22 +2534,22 @@
         <v>394.2882</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>657.25634</v>
+        <v>657.2563400000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>771.39495</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>363.07708</v>
+        <v>424.3227199999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>846.8777700000001</v>
+        <v>846.8777699999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>353.98273</v>
+        <v>353.9827300000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>326.51725</v>
+        <v>679.7328600000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1726.26692</v>
@@ -2462,37 +2558,42 @@
         <v>1871.75279</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1297.41079</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1297.4108</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>263.627</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6472.71208</v>
+        <v>6472.712080000001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>6299.138889999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>8796.459829999998</v>
+        <v>8796.45983</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>16906.02165</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>10749.47966</v>
+        <v>11987.27499</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8309.84181</v>
+        <v>8548.153920000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9100.21386</v>
+        <v>9115.468190000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9136.943889999999</v>
+        <v>9159.007379999999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>15852.99902</v>
@@ -2501,19 +2602,24 @@
         <v>23094.61348</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>24692.30578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>24725.77619</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>18694.971</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>6367.003970000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6219.46914</v>
+        <v>6219.469139999999</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>8657.08605</v>
@@ -2522,16 +2628,16 @@
         <v>16496.65546</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10646.52799</v>
+        <v>11884.32332</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8158.02474</v>
+        <v>8396.33685</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>8957.558209999999</v>
+        <v>8972.812540000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8823.710939999999</v>
+        <v>8845.774429999999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>15086.89611</v>
@@ -2540,25 +2646,30 @@
         <v>21216.33886</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>23361.09684</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>23394.56725</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>16953.998</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>105.70811</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>79.66974999999999</v>
+        <v>79.66974999999998</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>139.37378</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>409.3661900000001</v>
+        <v>409.36619</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>102.95167</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>1331.20894</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1740.973</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>151639.70764</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>64327.97608000001</v>
+        <v>64327.97608</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>73869.50494999999</v>
+        <v>73869.50495</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>65040.48665000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>74413.63025</v>
+        <v>72960.56571</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>78470.40960000001</v>
+        <v>78604.13983</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>48713.59722</v>
+        <v>48517.18135</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>15321.74497</v>
+        <v>40370.93938</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>34206.54145</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>33253.60565999999</v>
+        <v>33085.56109</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>103160.97115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>103556.92237</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>136908.344</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1659.97804</v>
@@ -2642,28 +2763,33 @@
         <v>5787.56673</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2057.64483</v>
+        <v>2058.19595</v>
       </c>
       <c r="I48" s="47" t="n">
         <v>2512.65913</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2732.96026</v>
+        <v>3338.41346</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>3622.9273</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4336.220870000001</v>
+        <v>4339.134950000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5220.87945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5231.02728</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>12091.519</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>26.49717</v>
@@ -2678,7 +2804,7 @@
         <v>62.00871000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>82.57478999999999</v>
+        <v>82.57479000000001</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>119.28442</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>16.75461</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1696.804</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1633.48087</v>
@@ -2714,34 +2845,39 @@
         <v>3477.05243</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3739.970310000001</v>
+        <v>3739.97031</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>5704.991940000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1938.36041</v>
+        <v>1938.91153</v>
       </c>
       <c r="I50" s="48" t="n">
         <v>2261.03563</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2731.944060000001</v>
+        <v>3337.39726</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3589.86585</v>
+        <v>3589.865850000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4334.58798</v>
+        <v>4337.50206</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5204.12484</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5214.27267</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>10394.715</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2035.01798</v>
@@ -2762,25 +2898,30 @@
         <v>2330.03987</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1305.99528</v>
+        <v>1306.10639</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5699.972970000001</v>
+        <v>5699.97297</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>8027.470559999999</v>
+        <v>8027.47056</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>12218.66575</v>
+        <v>12220.06971</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>11970.02881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>11970.64341</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>6403.014</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>22.24079</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>94.33904000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>64.744</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>299.36811</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>297.7641</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>426.341</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1713.40908</v>
@@ -2879,31 +3030,36 @@
         <v>2155.8985</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1121.24937</v>
+        <v>1121.36048</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4806.41378</v>
+        <v>4806.413779999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5277.191429999999</v>
+        <v>5277.19143</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>11936.3688</v>
+        <v>11937.77276</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11577.92567</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>11578.54027</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>5911.929</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>151264.6677</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>64342.73420000001</v>
+        <v>64342.7342</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>63570.97375</v>
@@ -2912,37 +3068,42 @@
         <v>66531.23594</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>77788.94646000001</v>
+        <v>76335.88191999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>78198.01456</v>
+        <v>78332.29591</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>49920.26107</v>
+        <v>49723.73409000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>12354.73226</v>
+        <v>38009.37987</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>29801.99819</v>
+        <v>29801.99818999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>25371.16078</v>
+        <v>25204.62633</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>96411.82179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>96817.30624000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>142596.849</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>8609.088740000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>8359.282569999999</v>
+        <v>8359.282570000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>12720.45691</v>
@@ -2951,31 +3112,36 @@
         <v>12608.99938</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>14718.57089</v>
+        <v>14766.31687</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>14204.76673</v>
+        <v>14206.23079</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>9561.032810000001</v>
+        <v>9565.50475</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4115.209110000001</v>
+        <v>9389.097530000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>10972.17448</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13215.91175</v>
+        <v>13231.00806</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>20555.90116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>20637.51871</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>24938.637</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>142655.57896</v>
@@ -2984,34 +3150,37 @@
         <v>55983.45163</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>50850.51683999999</v>
+        <v>50850.51684</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>53922.23656</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>63070.37556999998</v>
+        <v>61569.56505</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>63993.24782999999</v>
+        <v>64126.06512000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>40359.22826</v>
+        <v>40158.22934000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>8239.523150000001</v>
+        <v>28620.28234</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>18829.82371</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>12155.24902999999</v>
+        <v>11973.61827</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>75855.92063000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>76179.78753</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>117658.212</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>659</v>
@@ -3044,28 +3216,31 @@
         <v>742</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>885</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>895</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>